--- a/UserfulReviewInGeneratedReference.xlsx
+++ b/UserfulReviewInGeneratedReference.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14920"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>generated reviews</t>
   </si>
   <si>
-    <t>Userful reviews</t>
+    <t>Valid Comments/suggestions overlooked by reference review</t>
   </si>
   <si>
     <t>May be static imports for TimeUnit values here and below?</t>
@@ -1633,15 +1633,15 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="25" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.39423076923077" customWidth="1"/>
+    <col min="1" max="1" width="5.39090909090909" customWidth="1"/>
     <col min="2" max="2" width="33" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.7115384615385" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5673076923077" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7090909090909" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5636363636364" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="2"/>
   </cols>
   <sheetData>
